--- a/pred_ohlcv/54_21/2019-10-31 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CTXC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>79173.80166572361</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>108425.6079657236</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106925.6079657236</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>135842.4891657236</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>135799.5653657236</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>163384.4810657236</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>151361.4810657236</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>152596.5512657236</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>152585.5512657236</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>114570.9138657236</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>122063.2873657236</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>94546.3064657236</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>104797.9616657236</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>112107.0008657236</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>111811.3121657236</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>113883.7684657236</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>113871.7684657236</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>117666.0275657236</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>103413.3093657236</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>130036.0755657236</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>128441.4374657236</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>121229.0265657236</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>119536.4422657236</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>154177.9779657236</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-648.9989342763965</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-27643.0436342764</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CTXC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>79173.80166572361</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>108425.6079657236</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>106925.6079657236</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>128605.9716657236</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>135834.4891657236</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>135854.4891657236</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>135842.4891657236</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>135799.5653657236</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>163384.4810657236</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>151361.4810657236</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>152596.5512657236</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>152585.5512657236</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>94546.3064657236</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>111811.3121657236</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-648.9989342763965</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11713.5882657236</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-27643.0436342764</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-28811.1181342764</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-23757.1181342764</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
